--- a/Timeline D4.xlsx
+++ b/Timeline D4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Activity</t>
   </si>
@@ -59,10 +59,58 @@
     <t>PID Control Development. Writing and uploading programs to the control arduino and testing it with a simple micro-server</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>Bluetooth communication design and testing. Sending byte packets to and from arduino.</t>
+  </si>
+  <si>
+    <t>Frame design/manufacture. 3D design the chassis using CAD, then 3D print it. Then assembly the parts into a complete chassis</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Work on hook design and synthesis. Test hook designs and find ways to fit onto chassis. Fix hook onto chassis.</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>RF transmitter and reciever design and synthesis</t>
+  </si>
+  <si>
+    <t>Automation coding implemented onto control arduino</t>
+  </si>
+  <si>
+    <t>NK,RC</t>
+  </si>
+  <si>
+    <t>NK,PC,LS</t>
+  </si>
+  <si>
+    <t>Interfacing control and comms module</t>
+  </si>
+  <si>
+    <t>Assembling all electronics and mechanical parts onto chassis</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>PC,BB,RC</t>
+  </si>
+  <si>
+    <t>NK,LS</t>
+  </si>
+  <si>
+    <t>Test, tune and refuel drone until successfully accomplishing milestones.</t>
+  </si>
+  <si>
+    <t>Decide, design, and implement additional features. Wifi camera, LEDs, other automation (barometer) etc.</t>
+  </si>
+  <si>
+    <t>PC,LS,RC</t>
+  </si>
+  <si>
+    <t>Final trail run with various weights</t>
   </si>
 </sst>
 </file>
@@ -174,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -199,6 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -514,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D17"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -633,10 +682,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -696,15 +745,19 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -715,11 +768,11 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -730,11 +783,11 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -745,25 +798,29 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -775,10 +832,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -790,10 +847,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -805,10 +862,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -816,12 +873,16 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -835,8 +896,8 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -850,8 +911,8 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -865,8 +926,8 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -876,15 +937,19 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -893,13 +958,13 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -908,13 +973,13 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -923,25 +988,29 @@
     <row r="25" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -955,8 +1024,8 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -970,8 +1039,8 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -985,8 +1054,8 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -996,15 +1065,19 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1019,7 +1092,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1034,7 +1107,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1049,25 +1122,316 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
+  <mergeCells count="143">
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
@@ -1090,77 +1454,17 @@
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="K22:K25"/>
     <mergeCell ref="L22:L25"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timeline D4.xlsx
+++ b/Timeline D4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Activity</t>
   </si>
@@ -59,6 +59,9 @@
     <t>PID Control Development. Writing and uploading programs to the control arduino and testing it with a simple micro-server</t>
   </si>
   <si>
+    <t>NK</t>
+  </si>
+  <si>
     <t>Bluetooth communication design and testing. Sending byte packets to and from arduino.</t>
   </si>
   <si>
@@ -74,43 +77,49 @@
     <t>RC</t>
   </si>
   <si>
-    <t>RF transmitter and reciever design and synthesis</t>
-  </si>
-  <si>
     <t>Automation coding implemented onto control arduino</t>
   </si>
   <si>
-    <t>NK,RC</t>
-  </si>
-  <si>
-    <t>NK,PC,LS</t>
-  </si>
-  <si>
     <t>Interfacing control and comms module</t>
   </si>
   <si>
-    <t>Assembling all electronics and mechanical parts onto chassis</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>PC,BB,RC</t>
-  </si>
-  <si>
-    <t>NK,LS</t>
-  </si>
-  <si>
     <t>Test, tune and refuel drone until successfully accomplishing milestones.</t>
   </si>
   <si>
-    <t>Decide, design, and implement additional features. Wifi camera, LEDs, other automation (barometer) etc.</t>
-  </si>
-  <si>
-    <t>PC,LS,RC</t>
-  </si>
-  <si>
     <t>Final trail run with various weights</t>
+  </si>
+  <si>
+    <t>RF reciever design and synthesis</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>RF transmitter design</t>
+  </si>
+  <si>
+    <t>RF transmitter synthesis</t>
+  </si>
+  <si>
+    <t>Fix mechanical parts onto chassis</t>
+  </si>
+  <si>
+    <t>Assembling all electronics onto chassis</t>
+  </si>
+  <si>
+    <t>Design and implement wifi camera streaming with RPI</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>Develop Automation Code for altitude sensing</t>
+  </si>
+  <si>
+    <t>Develop Automation Code for a wall sensing</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -248,6 +257,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -563,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42:L45"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -682,10 +692,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -746,10 +756,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -810,10 +820,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -874,17 +884,17 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -896,10 +906,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -911,10 +921,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -926,30 +936,30 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="4"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -960,11 +970,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="5"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -975,11 +985,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -990,11 +1000,11 @@
       <c r="B25" s="6"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="6"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1002,10 +1012,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1066,18 +1076,18 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1086,13 +1096,13 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1101,13 +1111,13 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1116,13 +1126,13 @@
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -1130,83 +1140,83 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -1216,12 +1226,12 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -1231,12 +1241,12 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -1246,121 +1256,485 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="M38:M41"/>
+  <mergeCells count="208">
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="L62:L65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="L54:L57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
@@ -1406,39 +1780,6 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="M14:M17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="M22:M25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
@@ -1448,23 +1789,77 @@
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="H26:H29"/>
     <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H22:H25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
     <mergeCell ref="J26:J29"/>
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="M42:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
